--- a/in2010301/18/18.xlsx
+++ b/in2010301/18/18.xlsx
@@ -34,6 +34,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0_ ;[Red]\-0\ "/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -64,9 +67,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -383,16 +387,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="15" width="4.5703125" customWidth="1"/>
+    <col min="1" max="15" width="4.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>-20</v>
       </c>
@@ -443,7 +447,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>-9</v>
       </c>
@@ -494,7 +498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>13</v>
       </c>
@@ -545,7 +549,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>-8</v>
       </c>
@@ -596,7 +600,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>16</v>
       </c>
@@ -647,7 +651,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>-20</v>
       </c>
@@ -698,7 +702,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>21</v>
       </c>
@@ -749,7 +753,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>-4</v>
       </c>
@@ -800,7 +804,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -851,7 +855,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>27</v>
       </c>
@@ -902,7 +906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>-24</v>
       </c>
@@ -953,7 +957,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>-10</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>-1</v>
       </c>
@@ -1055,7 +1059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>20</v>
       </c>
@@ -1157,75 +1161,80 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <f>SUMIF(A2:A15,"&gt;0")+A1</f>
         <v>103</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f t="shared" ref="B16:O16" si="1">SUMIF(B2:B15,"&gt;0")+B1</f>
         <v>165</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <f t="shared" si="1"/>
         <v>181</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="2">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
+      <c r="Q16" s="2">
+        <f>A1+A3+B3+B4+B5+B8+C8+D8+E8+F8+G8+G9+G11+G12+I12+L12+L13+M13+N13+O13+O15</f>
+        <v>323</v>
+      </c>
     </row>
     <row r="17" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q17">
+      <c r="Q17" s="2">
         <f>A1+A3+A5+A7+A8+B8+C8+D8+E8+G8+F8+I8+J8+K8+N8+N9+N12+N13+O13+O15</f>
         <v>299</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>